--- a/w14/ise304_syssim_14_callcenter.xlsx
+++ b/w14/ise304_syssim_14_callcenter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serhan.aydin\Documents\github\nsydn\ise304_syssim\w14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17FD2ED-A7A1-4D56-A4CB-68CFB774B0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A59C508-E5E1-409E-A478-8A07265660A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75305A79-A37D-4D69-BA24-001A41A56DE3}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,7 +134,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,8 +459,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E90556-4338-4C65-B04A-0DC5FC2E3B6F}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,15 +505,15 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <f ca="1">RAND()</f>
-        <v>0.42467884230681729</v>
+        <v>0.48162474929335941</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">RAND()</f>
-        <v>9.6461997744171746E-2</v>
+        <v>0.51108431145716871</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">A2-B2</f>
-        <v>0.32821684456264555</v>
+        <v>-2.9459562163809294E-2</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -535,15 +537,15 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f t="shared" ref="A3:B11" ca="1" si="0">RAND()</f>
-        <v>0.33594874312260536</v>
+        <v>0.34153707332577954</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80628399327981282</v>
+        <v>0.92992518038531202</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C11" ca="1" si="1">A3-B3</f>
-        <v>-0.47033525015720745</v>
+        <v>-0.58838810705953248</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -567,15 +569,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74642915562278733</v>
+        <v>0.71990629817697882</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55848401484406252</v>
+        <v>0.88057660735187515</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18794514077872482</v>
+        <v>-0.16067030917489633</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -599,15 +601,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.646683668882443</v>
+        <v>0.9941804725712684</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57215062571042985</v>
+        <v>0.77923408786851456</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4533043172013147E-2</v>
+        <v>0.21494638470275385</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -631,15 +633,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60463802172551795</v>
+        <v>0.76834188702774242</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37029189696427289</v>
+        <v>0.14696588880683792</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23434612476124506</v>
+        <v>0.6213759982209045</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -663,15 +665,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7124971364603887</v>
+        <v>0.60663130159971068</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9416589399791664E-2</v>
+        <v>0.95151345549689081</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65308054706059704</v>
+        <v>-0.34488215389718013</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -695,15 +697,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57121295378300507</v>
+        <v>4.75707178430399E-2</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90507999704901532</v>
+        <v>0.31293577753069568</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33386704326601024</v>
+        <v>-0.26536505968765578</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -727,15 +729,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90048710309225966</v>
+        <v>0.64349707880155638</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7706732779224581</v>
+        <v>0.22647933518516961</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12981382516980156</v>
+        <v>0.41701774361638677</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -759,15 +761,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64265761935047427</v>
+        <v>0.46344933336709637</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83561394398843103</v>
+        <v>0.56369876592046153</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19295632463795676</v>
+        <v>-0.10024943255336516</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -791,15 +793,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6054010027978044</v>
+        <v>0.32669869416815178</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65734887895714866</v>
+        <v>0.53777310791686694</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1947876159344264E-2</v>
+        <v>-0.21107441374871516</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -825,7 +827,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <f ca="1">_xlfn.STDEV.S(C2:C11)</f>
-        <v>0.33137306442211367</v>
+        <v>0.36562024460222764</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>7</v>
@@ -857,7 +859,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3">
         <f ca="1">SQRT(_xlfn.STDEV.S(A2:A11)^2+_xlfn.STDEV.S(B2:B11)^2-2*CORREL(A2:A11,B2:B11)*_xlfn.STDEV.S(A2:A11)*_xlfn.STDEV.S(B2:B11))</f>
-        <v>0.33137306442211406</v>
+        <v>0.36562024460222764</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>8</v>
